--- a/Example_data/Input/Training_data/Tag_GPS_locations_time_filt.xlsx
+++ b/Example_data/Input/Training_data/Tag_GPS_locations_time_filt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s5236256\Documents\GitHub\ml4rt\Example_data\Input\Training_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Documents\GitHub\ml4rt\Example_data\Input\Training_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372400D3-E972-464E-B4D0-8BEA0AE98C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F110C698-396B-4442-AD16-4396389A9EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3267647-5F14-4534-9C24-294E6B63FC4E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{A3267647-5F14-4534-9C24-294E6B63FC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,16 +423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE7CA3-1BEE-4192-B6FF-7117F9061A10}">
   <dimension ref="A1:G555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.53125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -455,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,7 +478,7 @@
         <v>-21.932803</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,7 +501,7 @@
         <v>-21.934926999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -524,7 +524,7 @@
         <v>-21.937491000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,7 +547,7 @@
         <v>-21.944232</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,7 +570,7 @@
         <v>-21.920126</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,7 +593,7 @@
         <v>-21.920421999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -616,7 +616,7 @@
         <v>-22.011675</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -639,7 +639,7 @@
         <v>-22.010857000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -662,7 +662,7 @@
         <v>-22.011675</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -685,7 +685,7 @@
         <v>-22.010857000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -708,7 +708,7 @@
         <v>-22.010073999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -731,7 +731,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -754,7 +754,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -777,7 +777,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -800,7 +800,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -823,7 +823,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -846,7 +846,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -869,7 +869,7 @@
         <v>-22.013445999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -892,7 +892,7 @@
         <v>-22.013439999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -915,7 +915,7 @@
         <v>-22.016379000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -938,7 +938,7 @@
         <v>-22.016379000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -961,7 +961,7 @@
         <v>-22.144673000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -984,7 +984,7 @@
         <v>-22.144673000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>-22.144376999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>-22.144687999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>-22.144687999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>-22.144687999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>-21.919806999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>-22.137741999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>-22.136983000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>-22.137733000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>-22.138548</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>-22.140170999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>-22.141939000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>-22.143822</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>-22.143377999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>-22.142478000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>-22.141438000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>-22.140552</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>-22.139641000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>-22.138767000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>-22.137998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>-22.137186</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>-22.136296999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>-22.136036000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>-22.015186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>-22.016673000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>-21.918991999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>-21.919478999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>-21.94971</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>-21.949748</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>-21.950527000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>-21.951024</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>-21.951294000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>-21.951146000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>-21.951516000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>-21.950616</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>-21.95016</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>-21.949572</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>-21.949549999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>-21.948703999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>-21.948688000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>-21.947776000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>-21.947714999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>-21.947779000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>-21.948744000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>-21.945903999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>-21.945800999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>-21.945937000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>-21.945927000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>-21.945947</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>-21.945981</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>-21.946095</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>-21.945226999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>-21.945187000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>-21.945155</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>-21.945188000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>-21.945146999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>-21.945174999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>-21.945910999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>-21.945129000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>-21.944239</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>-21.946888000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>-21.947687999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>-21.948497</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>-21.948848000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>-21.949138000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>-21.949401999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>-21.949691000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>-21.948596999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>-21.948785000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>-21.949321000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>-21.948812</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>-21.948658000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>-21.948321</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>-21.947338999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>-21.946940000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>-21.947766999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>-21.946967999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>-21.946946000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>-21.947023999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>-21.946911</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>-21.950099999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>-21.950415</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>-21.951274999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>-21.950908999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>-21.950499000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>-21.949871999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>-21.951625</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>-21.951557000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>-21.951454999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>-21.950354999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>-21.950489000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>-21.926265000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>-21.925916999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>-21.925332000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>-21.924412</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>-21.923439999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>-21.920047</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>-21.919722</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>-21.919573</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>-21.920134999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>-21.919885000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>-21.919712000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>-21.920385</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>-21.921046</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>-21.921526</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>-21.921980999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>-21.922294999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>-21.922712000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>-21.921927</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>-21.920494999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>-21.919777</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>-21.919501</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>-22.015136999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>-22.013826999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>-22.012796999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>-22.015996999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>-22.013622000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>-22.014524000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>-22.015675999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>-21.949379</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>-21.950289999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>-21.951217</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>-21.951591000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>-21.951889000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>-21.952282</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>-21.952006000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>-21.950854</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>-21.950108</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>-21.948878000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>-21.947949999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>-21.946736000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>-21.945627000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>-21.944607000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>-21.943957000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>-21.944168999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>-21.945056999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>-21.945699999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>-21.946629000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>-21.947657</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>-21.948504</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>-21.922125000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>-21.922919</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>-21.923884999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>-21.921154000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>-21.919436000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>-21.918503000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>-21.91835</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>-21.915834</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>-21.914950000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>-21.913782999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>-21.920307999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>-21.920565</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>-21.943719000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>-21.945785000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>-21.945796000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>-21.946712000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>-21.946679</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>-21.947458999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>-21.947485</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>-21.948225999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>-21.948135000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>-21.948763</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>-21.948924000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>-21.949083999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>-21.948287000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>-22.015730000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>-21.918645000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>-21.917914</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>-21.917372</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>-21.917255000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>-21.917331000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>-21.917878000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>-21.918883999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>-21.919989000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>-21.920707</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>-21.921339</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>-21.921454000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>-21.921448000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>-21.921116000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>-21.920573999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>-22.135829999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>-22.137253000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>-22.138131000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>-22.138665</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>-22.139042</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>-22.138831</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>-22.139137999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>-22.139344000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>-22.138504000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>-22.137892000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>-22.137127</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>-22.136741000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>-22.136151999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>-22.135266000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>-22.137174000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>-21.945903999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>-21.945800999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>-21.945937000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>-21.945927000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>-21.945947</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>-21.945981</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>-21.946095</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>-21.945226999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>-21.945187000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>-21.945155</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>-21.945188000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>-21.945146999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>-21.945129000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>-21.944239</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>-21.946888000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>-21.947687999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>-21.948497</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>-21.948848000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>-21.949138000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>-21.949401999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>-21.949691000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>-21.948596999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>-21.948785000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>-21.949321000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>-21.920047</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>-21.919722</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>-21.919573</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>-21.920134999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>-21.919885000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>-21.919712000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>-21.920385</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>-21.921046</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>-21.921526</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>-21.921980999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>-21.922294999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>-21.922712000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>-21.921927</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>-21.920494999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>-21.919777</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>-21.919501</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>-22.015136999999999</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>-22.013826999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>-22.012796999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>-22.015996999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>-22.013622000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>-22.014524000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>-22.015675999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>-21.949379</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>-21.950289999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>-21.951217</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>-21.951591000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>-21.951889000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>-21.952282</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>-21.952006000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>-21.950854</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>-21.950108</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>-21.948878000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>-21.947949999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>-21.946736000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>-21.945627000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>-21.944607000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>-21.943957000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>-21.944168999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>-21.945056999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>-21.945699999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>-21.946629000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>-21.947657</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>-21.948504</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>-21.922125000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>-21.922919</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>-21.923884999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>-21.921154000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>-21.919436000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>-21.918503000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>-21.91835</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>-21.915834</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>-21.914950000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>-21.913782999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>-21.920307999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>-21.920565</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>-21.919945999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>-21.919968000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>-21.919832</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>301</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>-22.016525999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>302</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>-22.016361</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>303</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>-22.016400999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>304</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>-21.919947000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>305</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>-22.016576000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>306</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>-22.016576000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>307</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>-22.016525999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>308</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>-22.016525999999999</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>-22.016400999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>-22.016400999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>-21.919945999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>-21.919945999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>-21.919968000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>-21.919968000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>-21.919709999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>-21.919709999999998</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>-21.919832</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>-21.919832</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>-21.919947000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>-21.919947000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>-21.920377999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>-21.920377999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>-22.014886000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>-22.014078000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>-22.013400000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>-22.012737000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>-22.012681000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>-22.012912</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>329</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>-22.013601000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>330</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>-22.014389999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>331</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>-21.949961999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>332</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>-21.946383999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>333</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>-21.946249999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>334</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>-21.91498</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>335</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>-21.914973</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>336</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>-21.914940999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>337</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>-21.914636999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>338</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>-21.911764000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>339</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>-21.912278000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>340</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>-21.911919000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>341</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>-21.912213999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>342</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>-21.912306000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>343</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>-21.911570000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>344</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>-21.910868000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>345</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>-21.910475999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>346</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>-21.917459999999998</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>347</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>-21.921195000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>348</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>-21.921897999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>349</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>-21.921908999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>350</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>-21.922263999999998</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>351</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>-21.922125999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>352</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>-21.922243000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>353</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>-21.922737999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>354</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>-21.921792</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>355</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>-21.922021000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>356</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>-21.922115000000002</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>357</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>-21.922087000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>-21.921084</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>-21.920418999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>-21.919871000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>-21.919806999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>-21.920214999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>-21.920196000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>-21.929493000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>-21.933209999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>366</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>-21.945622</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>367</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>-21.945640000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>368</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>-21.945810999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>369</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>-21.934070999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>370</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>-21.949967999999998</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>371</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>-21.945992</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>372</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>-21.945703999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>373</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>-21.945782000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>374</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>-22.013836000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>375</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>-21.914952</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>376</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>-21.924168999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>377</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>-21.924175999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>378</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>-21.91947</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>379</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>-21.9192</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>380</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>-21.918683000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>381</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>-21.918683000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>382</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>-21.918683000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>383</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>-21.918512</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>384</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>-21.918301</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>385</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>-21.917936999999998</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>386</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>-21.915023000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>387</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>-21.913276</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>388</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>-21.914809000000002</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>389</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>-21.91507</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>390</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>-21.91507</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>391</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>-21.915053</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>392</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>-21.918724000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>393</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>-22.010290000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>394</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>-22.010104999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>395</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>-22.013887</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>396</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>-22.014078000000001</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>397</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>-22.014133000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>398</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>-22.013179999999998</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>399</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>-22.014672999999998</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>400</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>-22.015678999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>401</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>-22.015428</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>402</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>-22.015312999999999</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>403</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>-22.013904</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>404</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>-22.013712999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>405</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>-22.014225</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>406</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>-22.013926000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>407</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>-22.014323000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>408</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>-22.015637999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>409</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>-22.015677</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>410</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>-22.015606999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>411</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>-22.015944999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>412</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>-22.015944000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>413</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>-22.016061000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>414</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>-22.016061000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>415</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>-22.016646999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>416</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>-21.936565000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>417</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>-21.936679999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>418</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>-21.939945000000002</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>419</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>-21.936699999999998</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>420</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>-21.936753</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>421</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>-21.935093999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>422</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>-22.013926000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>423</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>-21.911280000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>424</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>-21.910602999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>425</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>-21.910769999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>426</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>-21.910131</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>427</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>-21.944372999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>428</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>-21.944158999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>429</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>-21.944728000000001</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>430</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>-21.944811000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>431</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>-21.914770000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>432</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>-21.914266999999999</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>433</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>-21.915099999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>434</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>-21.914677000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>435</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>-22.020060999999998</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>436</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>-22.021612000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>437</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>-22.021612000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>438</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>-22.021460000000001</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>439</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>-22.021460000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>440</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>-22.022003000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>441</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>-22.022003000000002</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>442</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>-22.021795000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>443</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>-22.021795000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>444</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>-22.022341999999998</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>445</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>-22.022341999999998</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>446</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>-22.018519999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>447</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>-21.913015999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>448</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>-21.913015999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>449</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>-21.913315000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>450</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>-21.912614000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>451</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>-21.912614000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>452</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>-21.912417999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>453</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>-21.912417999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>454</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>-21.913292999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>455</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>-21.913292999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>456</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>-21.914968999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>457</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>-21.912058999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>458</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>-21.908622999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>459</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>-21.908622999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>460</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>-21.930686000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>461</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>-21.929746999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>462</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>-21.929924</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>463</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>-21.914317</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>464</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>-21.914961999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>465</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>-21.914985999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>466</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>-21.914961000000002</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>467</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>-21.914807</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>468</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>-21.915002999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>469</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>-21.914912000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>470</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>-21.906489000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>471</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>-21.906704000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>472</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>-21.914044000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>473</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>-21.909255000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>474</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>-21.934775999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>475</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>-21.934367999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>476</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>-21.933413999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>477</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>-21.937211999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>478</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>-21.938808000000002</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>479</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>-21.938310999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>480</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>-21.937206</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>481</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>-21.938153</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>482</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>-21.937718</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>483</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>-21.937726000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>484</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>-21.936116999999999</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>485</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>-22.015028999999998</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>486</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>-22.018473</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>487</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>-22.018585000000002</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>488</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>-22.018568999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>489</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>-22.018767</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>490</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>-22.018623999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>491</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>-22.016722999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>492</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>-22.01671</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>493</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>-22.016670000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>494</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>-21.938175999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>495</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>-21.938175999999999</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>496</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>-21.938905999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>497</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>-21.938905999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>498</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>-21.938893</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>499</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>-21.938893</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>500</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>-21.938901999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>501</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>-21.938901999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>502</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>-21.937449000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>503</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>-21.937449000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>504</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>-21.937988000000001</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>505</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>-21.937988000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>506</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>-21.937985999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>507</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>-21.938129</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>508</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>-21.939198999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>509</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>-21.939198999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>510</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>-21.939198999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>511</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>-21.939360000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>512</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>-21.939360000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>513</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>-21.939360000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>514</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>515</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>516</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>517</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>-21.938856000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>518</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>-21.93957</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>519</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>-21.93957</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>520</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>-21.93957</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>521</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>-21.939433000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>522</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>-21.93947</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>523</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>-21.939696000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>524</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>-21.939696000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>525</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>-21.939696000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>526</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>-21.939634000000002</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>527</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>-21.939634000000002</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>528</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>-21.939634000000002</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>529</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>-21.938099000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>530</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>-21.938123000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>531</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>-21.938224000000002</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>532</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>-21.939257000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>533</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>-21.938317999999999</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>534</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>-21.937548</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>535</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>-21.93796</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>536</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>-21.939406000000002</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>537</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>-21.939048</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>538</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>-21.939314</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>539</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>-21.939377</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>540</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>-21.939427999999999</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>541</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>-21.939485999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>542</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>-21.939784</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>543</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>-21.919041</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>544</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>-21.919429999999998</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>545</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>-21.920451</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>546</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>-21.936865000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>547</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>-21.939437000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>548</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>-21.939429000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>549</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>-21.938262999999999</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>550</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>-21.938303999999999</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>551</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>-21.938164</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>552</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>-21.938165000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>553</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>-21.937073000000002</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>554</v>
       </c>
